--- a/summary/als/grouped_cotizacion.xlsx
+++ b/summary/als/grouped_cotizacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>WELL</t>
   </si>
@@ -55,6 +55,9 @@
     <t>ACAC-166</t>
   </si>
   <si>
+    <t>ACAD-095</t>
+  </si>
+  <si>
     <t>ACAE-082</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t>CLBA-006</t>
   </si>
   <si>
-    <t>CLBA-007R</t>
+    <t>CLBA-007R1</t>
   </si>
   <si>
     <t>CLBA-010H</t>
@@ -178,6 +181,9 @@
     <t>YLBA-030</t>
   </si>
   <si>
+    <t>YLBD-003</t>
+  </si>
+  <si>
     <t>YLBD-018</t>
   </si>
   <si>
@@ -190,25 +196,28 @@
     <t>YLBD-045H</t>
   </si>
   <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
     <t>Nov</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Jul</t>
   </si>
   <si>
     <t>Sep</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +639,7 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>12973.06</v>
@@ -668,7 +677,7 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>25184.02</v>
@@ -709,16 +718,16 @@
         <v>60</v>
       </c>
       <c r="E4">
-        <v>17609.86</v>
+        <v>18205.06</v>
       </c>
       <c r="F4">
-        <v>243494.334</v>
+        <v>324144.4391</v>
       </c>
       <c r="G4">
-        <v>23610.8909</v>
+        <v>25164.239</v>
       </c>
       <c r="H4">
-        <v>33707.7979</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -730,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>81917.37000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -744,31 +753,31 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>26603.62</v>
+        <v>17609.86</v>
       </c>
       <c r="F5">
-        <v>514831.7822</v>
+        <v>243494.334</v>
       </c>
       <c r="G5">
-        <v>27028.2567</v>
+        <v>23610.8909</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>33707.7979</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>141526.81</v>
+        <v>81917.37000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -782,31 +791,31 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>16058</v>
+        <v>26603.62</v>
       </c>
       <c r="F6">
-        <v>317342.6932</v>
+        <v>514831.7822</v>
       </c>
       <c r="G6">
-        <v>26406.9175</v>
+        <v>27028.2567</v>
       </c>
       <c r="H6">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>83511.89999999999</v>
+        <v>141526.81</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -820,19 +829,19 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7">
-        <v>25746.82</v>
+        <v>16058</v>
       </c>
       <c r="F7">
-        <v>253990.6159</v>
+        <v>317342.6932</v>
       </c>
       <c r="G7">
-        <v>27960.2656</v>
+        <v>26406.9175</v>
       </c>
       <c r="H7">
-        <v>38765.8136</v>
+        <v>36993.6621</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -844,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>83511.89999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -858,19 +867,19 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>18755.46</v>
+        <v>25746.82</v>
       </c>
       <c r="F8">
-        <v>299802.0569</v>
+        <v>253990.6159</v>
       </c>
       <c r="G8">
-        <v>29513.6137</v>
+        <v>27960.2656</v>
       </c>
       <c r="H8">
-        <v>5712</v>
+        <v>38765.8136</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -896,19 +905,19 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9">
-        <v>19408.1</v>
+        <v>18755.46</v>
       </c>
       <c r="F9">
-        <v>28014.8339</v>
+        <v>299802.0569</v>
       </c>
       <c r="G9">
-        <v>55593.5105</v>
+        <v>29513.6137</v>
       </c>
       <c r="H9">
-        <v>36919.8225</v>
+        <v>5712</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -934,19 +943,19 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E10">
-        <v>19027.18</v>
+        <v>19408.1</v>
       </c>
       <c r="F10">
-        <v>638405.0076</v>
+        <v>28014.8339</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>55593.5105</v>
       </c>
       <c r="H10">
-        <v>38027.4172</v>
+        <v>36919.8225</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -958,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37198.7055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -972,31 +981,31 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11">
-        <v>18205.06</v>
+        <v>19027.18</v>
       </c>
       <c r="F11">
-        <v>350421.9071</v>
+        <v>638405.0076</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>35996.8269</v>
+        <v>38027.4172</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59030.4</v>
+        <v>37198.7055</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1010,31 +1019,31 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12">
-        <v>13645.06</v>
+        <v>18205.06</v>
       </c>
       <c r="F12">
-        <v>299354.9628</v>
+        <v>350421.9071</v>
       </c>
       <c r="G12">
-        <v>12892.7891</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>18459.9112</v>
+        <v>35996.8269</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1042,13 +1051,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>13645.06</v>
@@ -1086,19 +1095,19 @@
         <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14">
-        <v>22457.38</v>
+        <v>13645.06</v>
       </c>
       <c r="F14">
-        <v>294985.4912</v>
+        <v>299354.9628</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12892.7891</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>18459.9112</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1110,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42006.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1124,19 +1133,19 @@
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15">
-        <v>44610.66</v>
+        <v>22457.38</v>
       </c>
       <c r="F15">
-        <v>358194.8644</v>
+        <v>294985.4912</v>
       </c>
       <c r="G15">
-        <v>49129.3974</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>25843.8757</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1145,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1162,19 +1171,19 @@
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16">
-        <v>35264.5</v>
+        <v>44610.66</v>
       </c>
       <c r="F16">
-        <v>290894.2855</v>
+        <v>358194.8644</v>
       </c>
       <c r="G16">
-        <v>25630.2434</v>
+        <v>49129.3974</v>
       </c>
       <c r="H16">
-        <v>36735.2234</v>
+        <v>25843.8757</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1183,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L16">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1200,19 +1209,19 @@
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>13645.06</v>
+        <v>35264.5</v>
       </c>
       <c r="F17">
-        <v>299354.9628</v>
+        <v>290894.2855</v>
       </c>
       <c r="G17">
-        <v>12892.7891</v>
+        <v>25630.2434</v>
       </c>
       <c r="H17">
-        <v>18459.9112</v>
+        <v>36735.2234</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1224,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1238,19 +1247,19 @@
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E18">
-        <v>21182.46</v>
+        <v>13645.06</v>
       </c>
       <c r="F18">
-        <v>516832.16</v>
+        <v>299354.9628</v>
       </c>
       <c r="G18">
-        <v>41714.5254</v>
+        <v>12892.7891</v>
       </c>
       <c r="H18">
-        <v>36735.2234</v>
+        <v>18459.9112</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1259,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1270,22 +1279,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>18397.06</v>
+        <v>21182.46</v>
       </c>
       <c r="F19">
-        <v>326646.9343</v>
+        <v>516832.16</v>
       </c>
       <c r="G19">
-        <v>24329.9319</v>
+        <v>41714.5254</v>
       </c>
       <c r="H19">
         <v>36735.2234</v>
@@ -1297,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L19">
-        <v>36863.1</v>
+        <v>199012.794</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1314,19 +1323,19 @@
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>25142.02</v>
+        <v>18397.06</v>
       </c>
       <c r="F20">
-        <v>277188.6893</v>
+        <v>326646.9343</v>
       </c>
       <c r="G20">
-        <v>24698.2346</v>
+        <v>24329.9319</v>
       </c>
       <c r="H20">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1338,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>173339.58</v>
+        <v>36863.1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1352,19 +1361,19 @@
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E21">
-        <v>15006.48</v>
+        <v>25142.02</v>
       </c>
       <c r="F21">
-        <v>324866.7652</v>
+        <v>277188.6893</v>
       </c>
       <c r="G21">
-        <v>38730.0079</v>
+        <v>24698.2346</v>
       </c>
       <c r="H21">
-        <v>39190.3916</v>
+        <v>35406.1098</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1376,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>173339.58</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1390,19 +1399,19 @@
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22">
-        <v>26099.62</v>
+        <v>15006.48</v>
       </c>
       <c r="F22">
-        <v>278579.4218</v>
+        <v>324866.7652</v>
       </c>
       <c r="G22">
-        <v>26251.5827</v>
+        <v>38730.0079</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1414,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1428,16 +1437,16 @@
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E23">
-        <v>27006.82</v>
+        <v>26099.62</v>
       </c>
       <c r="F23">
-        <v>264147.2883</v>
+        <v>278579.4218</v>
       </c>
       <c r="G23">
-        <v>27649.596</v>
+        <v>26251.5827</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1452,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>64312.56099999999</v>
+        <v>29992.31</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1466,19 +1475,19 @@
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E24">
-        <v>18896.26</v>
+        <v>27006.82</v>
       </c>
       <c r="F24">
-        <v>320793.0784</v>
+        <v>264147.2883</v>
       </c>
       <c r="G24">
-        <v>27028.2567</v>
+        <v>27649.596</v>
       </c>
       <c r="H24">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1490,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1504,19 +1513,19 @@
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E25">
-        <v>17000</v>
+        <v>18896.26</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>320793.0784</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>27028.2567</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10686.4527</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1542,19 +1551,19 @@
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>26563.62</v>
+        <v>17000</v>
       </c>
       <c r="F26">
-        <v>283269.233</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>25785.5783</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1566,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1583,16 +1592,16 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>18812.78</v>
+        <v>26563.62</v>
       </c>
       <c r="F27">
-        <v>591541.1514</v>
+        <v>283269.233</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>25785.5783</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1601,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>19227.3628</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1615,19 +1624,19 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28">
-        <v>21300</v>
+        <v>18812.78</v>
       </c>
       <c r="F28">
-        <v>303500</v>
+        <v>591541.1514</v>
       </c>
       <c r="G28">
-        <v>39800</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1639,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>40000</v>
+        <v>95464.1189</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>19227.3628</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1656,16 +1665,16 @@
         <v>2025</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>18963.92</v>
+        <v>21300</v>
       </c>
       <c r="F29">
-        <v>267383.277</v>
+        <v>303500</v>
       </c>
       <c r="G29">
-        <v>25093.7551</v>
+        <v>39800</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1674,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1694,25 +1703,25 @@
         <v>2025</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30">
-        <v>16590.18</v>
+        <v>18963.92</v>
       </c>
       <c r="F30">
-        <v>327010.7217</v>
+        <v>267383.277</v>
       </c>
       <c r="G30">
-        <v>25630.2434</v>
+        <v>25093.7551</v>
       </c>
       <c r="H30">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1732,19 +1741,19 @@
         <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E31">
-        <v>18460.42</v>
+        <v>16590.18</v>
       </c>
       <c r="F31">
-        <v>281664.89</v>
+        <v>327010.7217</v>
       </c>
       <c r="G31">
-        <v>25785.58</v>
+        <v>25630.2434</v>
       </c>
       <c r="H31">
-        <v>36978.89</v>
+        <v>36402.945</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1770,19 +1779,19 @@
         <v>2025</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32">
-        <v>18541.06</v>
+        <v>18460.42</v>
       </c>
       <c r="F32">
-        <v>319530.8217</v>
+        <v>281664.89</v>
       </c>
       <c r="G32">
-        <v>36708.3923</v>
+        <v>25785.58</v>
       </c>
       <c r="H32">
-        <v>37289.0207</v>
+        <v>36978.89</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1791,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1808,19 +1817,19 @@
         <v>2025</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33">
-        <v>14932.88</v>
+        <v>18541.06</v>
       </c>
       <c r="F33">
-        <v>262147.1729</v>
+        <v>319530.8217</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>36708.3923</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>37289.0207</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1829,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>5376</v>
+        <v>5373.2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1846,19 +1855,19 @@
         <v>2025</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E34">
-        <v>16058</v>
+        <v>14932.88</v>
       </c>
       <c r="F34">
-        <v>317342.6932</v>
+        <v>262147.1729</v>
       </c>
       <c r="G34">
-        <v>26406.9175</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1867,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L34">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1884,19 +1893,19 @@
         <v>2025</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35">
-        <v>15265.68</v>
+        <v>16058</v>
       </c>
       <c r="F35">
-        <v>311352.2643</v>
+        <v>317342.6932</v>
       </c>
       <c r="G35">
         <v>26406.9175</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1908,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1922,16 +1931,16 @@
         <v>2025</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E36">
-        <v>20558.98</v>
+        <v>15265.68</v>
       </c>
       <c r="F36">
-        <v>300178.145</v>
+        <v>311352.2643</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1940,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1960,13 +1969,13 @@
         <v>2025</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E37">
-        <v>80000</v>
+        <v>20558.98</v>
       </c>
       <c r="F37">
-        <v>120000</v>
+        <v>300178.145</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1975,16 +1984,16 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1998,22 +2007,22 @@
         <v>2025</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E38">
-        <v>14668.56</v>
+        <v>80000</v>
       </c>
       <c r="F38">
-        <v>301721.9088</v>
+        <v>120000</v>
       </c>
       <c r="G38">
-        <v>24232.2302</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2022,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2036,22 +2045,22 @@
         <v>2025</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E39">
-        <v>30000</v>
+        <v>14668.56</v>
       </c>
       <c r="F39">
-        <v>120000</v>
+        <v>301721.9088</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>24232.2302</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2060,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2074,31 +2083,31 @@
         <v>2025</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F40">
-        <v>433983.8522</v>
+        <v>120000</v>
       </c>
       <c r="G40">
-        <v>66756.6691</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>37362.8604</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2112,28 +2121,28 @@
         <v>2025</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E41">
-        <v>19881.64</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>544086.7781999999</v>
+        <v>433983.8522</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>66756.6691</v>
       </c>
       <c r="H41">
-        <v>34335.4349</v>
+        <v>37362.8604</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2150,19 +2159,19 @@
         <v>2025</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E42">
-        <v>20006.44</v>
+        <v>19881.64</v>
       </c>
       <c r="F42">
-        <v>386492.0891</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="G42">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>34335.4349</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2188,22 +2197,22 @@
         <v>2025</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E43">
-        <v>32773.06</v>
+        <v>20006.44</v>
       </c>
       <c r="F43">
-        <v>341581.165</v>
+        <v>386492.0891</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>26973.826</v>
       </c>
       <c r="H43">
-        <v>36550.6243</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2229,19 +2238,19 @@
         <v>64</v>
       </c>
       <c r="E44">
-        <v>29792.44</v>
+        <v>32773.06</v>
       </c>
       <c r="F44">
-        <v>592371.3167</v>
+        <v>341581.165</v>
       </c>
       <c r="G44">
-        <v>25940.9131</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>37196.7212</v>
+        <v>36550.6243</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2250,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2264,19 +2273,19 @@
         <v>2025</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>29792.44</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>592371.3167</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>25940.9131</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>37196.7212</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2288,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>500373.46</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2302,7 +2311,7 @@
         <v>2025</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2340,16 +2349,16 @@
         <v>2025</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E47">
-        <v>25326.82</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>276375.5386</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>25008.9042</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2364,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2378,19 +2387,19 @@
         <v>2025</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E48">
-        <v>18541.06</v>
+        <v>23898.82</v>
       </c>
       <c r="F48">
-        <v>252067.7995</v>
+        <v>409625.5938</v>
       </c>
       <c r="G48">
-        <v>26979.2036</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>36919.8225</v>
+        <v>32674.0429</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2399,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>52444.52</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2416,19 +2425,19 @@
         <v>2025</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E49">
-        <v>21854.46</v>
+        <v>25326.82</v>
       </c>
       <c r="F49">
-        <v>624821.7819000001</v>
+        <v>276375.5386</v>
       </c>
       <c r="G49">
-        <v>12116.1151</v>
+        <v>25008.9042</v>
       </c>
       <c r="H49">
-        <v>40316.4462</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2437,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>229812.833425</v>
+        <v>23876.1125</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2454,30 +2463,106 @@
         <v>2025</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E50">
+        <v>18541.06</v>
+      </c>
+      <c r="F50">
+        <v>252067.7995</v>
+      </c>
+      <c r="G50">
+        <v>26979.2036</v>
+      </c>
+      <c r="H50">
+        <v>36919.8225</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>5600</v>
+      </c>
+      <c r="L50">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>2025</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51">
+        <v>21854.46</v>
+      </c>
+      <c r="F51">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G51">
+        <v>12116.1151</v>
+      </c>
+      <c r="H51">
+        <v>40316.4462</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>19487.5781</v>
+      </c>
+      <c r="L51">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>2025</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52">
         <v>27683.86</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <v>418982.5319</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>51527.9349</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>40992.0789</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>181185.5419</v>
       </c>
-      <c r="L50">
+      <c r="L52">
         <v>60577.37</v>
       </c>
     </row>

--- a/summary/als/grouped_cotizacion.xlsx
+++ b/summary/als/grouped_cotizacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>WELL</t>
   </si>
@@ -55,6 +55,9 @@
     <t>ACAC-166</t>
   </si>
   <si>
+    <t>ACAD-095</t>
+  </si>
+  <si>
     <t>ACAE-082</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>ACAI-106</t>
   </si>
   <si>
+    <t>ACAJ-154</t>
+  </si>
+  <si>
     <t>ACAK-125</t>
   </si>
   <si>
@@ -121,7 +127,7 @@
     <t>CLBA-006</t>
   </si>
   <si>
-    <t>CLBA-007R</t>
+    <t>CLBA-007R1</t>
   </si>
   <si>
     <t>CLBA-010H</t>
@@ -154,6 +160,12 @@
     <t>CNOI-041</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TBD INY</t>
+  </si>
+  <si>
     <t>TTSA-002</t>
   </si>
   <si>
@@ -178,6 +190,9 @@
     <t>YLBA-030</t>
   </si>
   <si>
+    <t>YLBD-003</t>
+  </si>
+  <si>
     <t>YLBD-018</t>
   </si>
   <si>
@@ -190,25 +205,28 @@
     <t>YLBD-045H</t>
   </si>
   <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
     <t>Nov</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Jul</t>
   </si>
   <si>
     <t>Sep</t>
@@ -578,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +648,7 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>12973.06</v>
@@ -668,7 +686,7 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>25184.02</v>
@@ -706,19 +724,19 @@
         <v>2025</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>17609.86</v>
+        <v>18205.06</v>
       </c>
       <c r="F4">
-        <v>243494.334</v>
+        <v>324144.4391</v>
       </c>
       <c r="G4">
-        <v>23610.8909</v>
+        <v>25164.239</v>
       </c>
       <c r="H4">
-        <v>33707.7979</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -730,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>81917.37000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -744,31 +762,31 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>26603.62</v>
+        <v>17609.86</v>
       </c>
       <c r="F5">
-        <v>514831.7822</v>
+        <v>243494.334</v>
       </c>
       <c r="G5">
-        <v>27028.2567</v>
+        <v>23610.8909</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>33707.7979</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>141526.81</v>
+        <v>81917.37000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -782,31 +800,31 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>16058</v>
+        <v>26603.62</v>
       </c>
       <c r="F6">
-        <v>317342.6932</v>
+        <v>514831.7822</v>
       </c>
       <c r="G6">
-        <v>26406.9175</v>
+        <v>27028.2567</v>
       </c>
       <c r="H6">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>83511.89999999999</v>
+        <v>141526.81</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -820,19 +838,19 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7">
-        <v>25746.82</v>
+        <v>16058</v>
       </c>
       <c r="F7">
-        <v>253990.6159</v>
+        <v>317342.6932</v>
       </c>
       <c r="G7">
-        <v>27960.2656</v>
+        <v>26406.9175</v>
       </c>
       <c r="H7">
-        <v>38765.8136</v>
+        <v>36993.6621</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -844,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>83511.89999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -858,19 +876,19 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E8">
-        <v>18755.46</v>
+        <v>25746.82</v>
       </c>
       <c r="F8">
-        <v>299802.0569</v>
+        <v>253990.6159</v>
       </c>
       <c r="G8">
-        <v>29513.6137</v>
+        <v>27960.2656</v>
       </c>
       <c r="H8">
-        <v>5712</v>
+        <v>38765.8136</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -896,19 +914,19 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9">
-        <v>19408.1</v>
+        <v>18755.46</v>
       </c>
       <c r="F9">
-        <v>28014.8339</v>
+        <v>299802.0569</v>
       </c>
       <c r="G9">
-        <v>55593.5105</v>
+        <v>29513.6137</v>
       </c>
       <c r="H9">
-        <v>36919.8225</v>
+        <v>5712</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -934,19 +952,19 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E10">
-        <v>19027.18</v>
+        <v>19408.1</v>
       </c>
       <c r="F10">
-        <v>638405.0076</v>
+        <v>28014.8339</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>55593.5105</v>
       </c>
       <c r="H10">
-        <v>38027.4172</v>
+        <v>36919.8225</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -958,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37198.7055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -972,31 +990,31 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11">
-        <v>18205.06</v>
+        <v>19027.18</v>
       </c>
       <c r="F11">
-        <v>350421.9071</v>
+        <v>638405.0076</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>35996.8269</v>
+        <v>38027.4172</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59030.4</v>
+        <v>37198.7055</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1010,19 +1028,19 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E12">
-        <v>13645.06</v>
+        <v>12973.06</v>
       </c>
       <c r="F12">
-        <v>299354.9628</v>
+        <v>207427.7507</v>
       </c>
       <c r="G12">
-        <v>12892.7891</v>
+        <v>26424.582</v>
       </c>
       <c r="H12">
-        <v>18459.9112</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1042,37 +1060,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13">
-        <v>13645.06</v>
+        <v>18205.06</v>
       </c>
       <c r="F13">
-        <v>299354.9628</v>
+        <v>350421.9071</v>
       </c>
       <c r="G13">
-        <v>12892.7891</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>18459.9112</v>
+        <v>35996.8269</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1080,25 +1098,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14">
-        <v>22457.38</v>
+        <v>13645.06</v>
       </c>
       <c r="F14">
-        <v>294985.4912</v>
+        <v>299354.9628</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12892.7891</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>18459.9112</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1110,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42006.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1124,19 +1142,19 @@
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E15">
-        <v>44610.66</v>
+        <v>11806.48</v>
       </c>
       <c r="F15">
-        <v>358194.8644</v>
+        <v>442421.2041</v>
       </c>
       <c r="G15">
-        <v>49129.3974</v>
+        <v>12582.1195</v>
       </c>
       <c r="H15">
-        <v>25843.8757</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1145,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>251388.46</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1162,19 +1180,19 @@
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>35264.5</v>
+        <v>22457.38</v>
       </c>
       <c r="F16">
-        <v>290894.2855</v>
+        <v>294985.4912</v>
       </c>
       <c r="G16">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1186,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1200,19 +1218,19 @@
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E17">
-        <v>13645.06</v>
+        <v>44610.66</v>
       </c>
       <c r="F17">
-        <v>299354.9628</v>
+        <v>358194.8644</v>
       </c>
       <c r="G17">
-        <v>12892.7891</v>
+        <v>49129.3974</v>
       </c>
       <c r="H17">
-        <v>18459.9112</v>
+        <v>25843.8757</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1221,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1238,16 +1256,16 @@
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>21182.46</v>
+        <v>35264.5</v>
       </c>
       <c r="F18">
-        <v>516832.16</v>
+        <v>290894.2855</v>
       </c>
       <c r="G18">
-        <v>41714.5254</v>
+        <v>25630.2434</v>
       </c>
       <c r="H18">
         <v>36735.2234</v>
@@ -1259,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>199012.794</v>
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1270,25 +1288,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>18397.06</v>
+        <v>13645.06</v>
       </c>
       <c r="F19">
-        <v>326646.9343</v>
+        <v>299354.9628</v>
       </c>
       <c r="G19">
-        <v>24329.9319</v>
+        <v>12892.7891</v>
       </c>
       <c r="H19">
-        <v>36735.2234</v>
+        <v>18459.9112</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1300,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36863.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1308,25 +1326,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>25142.02</v>
+        <v>21182.46</v>
       </c>
       <c r="F20">
-        <v>277188.6893</v>
+        <v>516832.16</v>
       </c>
       <c r="G20">
-        <v>24698.2346</v>
+        <v>41714.5254</v>
       </c>
       <c r="H20">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1335,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L20">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1352,19 +1370,19 @@
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E21">
-        <v>15006.48</v>
+        <v>18397.06</v>
       </c>
       <c r="F21">
-        <v>324866.7652</v>
+        <v>326646.9343</v>
       </c>
       <c r="G21">
-        <v>38730.0079</v>
+        <v>24329.9319</v>
       </c>
       <c r="H21">
-        <v>39190.3916</v>
+        <v>36735.2234</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1376,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>36863.1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1390,19 +1408,19 @@
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E22">
-        <v>26099.62</v>
+        <v>25142.02</v>
       </c>
       <c r="F22">
-        <v>278579.4218</v>
+        <v>277188.6893</v>
       </c>
       <c r="G22">
-        <v>26251.5827</v>
+        <v>24698.2346</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35406.1098</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1414,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1428,19 +1446,19 @@
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E23">
-        <v>27006.82</v>
+        <v>15006.48</v>
       </c>
       <c r="F23">
-        <v>264147.2883</v>
+        <v>324866.7652</v>
       </c>
       <c r="G23">
-        <v>27649.596</v>
+        <v>38730.0079</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1452,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1466,19 +1484,19 @@
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E24">
-        <v>18896.26</v>
+        <v>26099.62</v>
       </c>
       <c r="F24">
-        <v>320793.0784</v>
+        <v>278579.4218</v>
       </c>
       <c r="G24">
-        <v>27028.2567</v>
+        <v>26251.5827</v>
       </c>
       <c r="H24">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1490,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1504,16 +1522,16 @@
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E25">
-        <v>17000</v>
+        <v>27006.82</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>264147.2883</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>27649.596</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1528,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1542,19 +1560,19 @@
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E26">
-        <v>26563.62</v>
+        <v>18896.26</v>
       </c>
       <c r="F26">
-        <v>283269.233</v>
+        <v>320793.0784</v>
       </c>
       <c r="G26">
-        <v>25785.5783</v>
+        <v>27028.2567</v>
       </c>
       <c r="H26">
-        <v>36919.8225</v>
+        <v>10686.4527</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1566,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1580,13 +1598,13 @@
         <v>2025</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E27">
-        <v>18812.78</v>
+        <v>17000</v>
       </c>
       <c r="F27">
-        <v>591541.1514</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1601,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>19227.3628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1615,22 +1633,22 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E28">
-        <v>21300</v>
+        <v>26563.62</v>
       </c>
       <c r="F28">
-        <v>303500</v>
+        <v>283269.233</v>
       </c>
       <c r="G28">
-        <v>39800</v>
+        <v>25785.5783</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1639,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1656,16 +1674,16 @@
         <v>2025</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E29">
-        <v>18963.92</v>
+        <v>18812.78</v>
       </c>
       <c r="F29">
-        <v>267383.277</v>
+        <v>591541.1514</v>
       </c>
       <c r="G29">
-        <v>25093.7551</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1674,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>95464.1189</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>19227.3628</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1694,19 +1712,19 @@
         <v>2025</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30">
-        <v>16590.18</v>
+        <v>21300</v>
       </c>
       <c r="F30">
-        <v>327010.7217</v>
+        <v>303500</v>
       </c>
       <c r="G30">
-        <v>25630.2434</v>
+        <v>39800</v>
       </c>
       <c r="H30">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1715,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1732,25 +1750,25 @@
         <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E31">
-        <v>18460.42</v>
+        <v>18963.92</v>
       </c>
       <c r="F31">
-        <v>281664.89</v>
+        <v>267383.277</v>
       </c>
       <c r="G31">
-        <v>25785.58</v>
+        <v>25093.7551</v>
       </c>
       <c r="H31">
-        <v>36978.89</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1770,19 +1788,19 @@
         <v>2025</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32">
-        <v>18541.06</v>
+        <v>16590.18</v>
       </c>
       <c r="F32">
-        <v>319530.8217</v>
+        <v>327010.7217</v>
       </c>
       <c r="G32">
-        <v>36708.3923</v>
+        <v>25630.2434</v>
       </c>
       <c r="H32">
-        <v>37289.0207</v>
+        <v>36402.945</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1791,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1808,19 +1826,19 @@
         <v>2025</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E33">
-        <v>14932.88</v>
+        <v>18460.42</v>
       </c>
       <c r="F33">
-        <v>262147.1729</v>
+        <v>281664.89</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>25785.58</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>36978.89</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1829,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -1846,19 +1864,19 @@
         <v>2025</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E34">
-        <v>16058</v>
+        <v>18541.06</v>
       </c>
       <c r="F34">
-        <v>317342.6932</v>
+        <v>319530.8217</v>
       </c>
       <c r="G34">
-        <v>26406.9175</v>
+        <v>36708.3923</v>
       </c>
       <c r="H34">
-        <v>36993.6621</v>
+        <v>37289.0207</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1867,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>5373.2</v>
       </c>
       <c r="L34">
-        <v>14106.87</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1884,16 +1902,16 @@
         <v>2025</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E35">
-        <v>15265.68</v>
+        <v>14932.88</v>
       </c>
       <c r="F35">
-        <v>311352.2643</v>
+        <v>262147.1729</v>
       </c>
       <c r="G35">
-        <v>26406.9175</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1905,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -1925,28 +1943,28 @@
         <v>65</v>
       </c>
       <c r="E36">
-        <v>20558.98</v>
+        <v>16058</v>
       </c>
       <c r="F36">
-        <v>300178.145</v>
+        <v>317342.6932</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1960,22 +1978,22 @@
         <v>2025</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E37">
-        <v>80000</v>
+        <v>15265.68</v>
       </c>
       <c r="F37">
-        <v>120000</v>
+        <v>311352.2643</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1984,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1998,16 +2016,16 @@
         <v>2025</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E38">
-        <v>14668.56</v>
+        <v>20558.98</v>
       </c>
       <c r="F38">
-        <v>301721.9088</v>
+        <v>300178.145</v>
       </c>
       <c r="G38">
-        <v>24232.2302</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2016,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2036,10 +2054,10 @@
         <v>2025</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E39">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="F39">
         <v>120000</v>
@@ -2051,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2074,28 +2092,28 @@
         <v>2025</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>14668.56</v>
       </c>
       <c r="F40">
-        <v>433983.8522</v>
+        <v>301721.9088</v>
       </c>
       <c r="G40">
-        <v>66756.6691</v>
+        <v>24232.2302</v>
       </c>
       <c r="H40">
-        <v>37362.8604</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2112,19 +2130,19 @@
         <v>2025</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E41">
-        <v>19881.64</v>
+        <v>103206.2</v>
       </c>
       <c r="F41">
-        <v>544086.7781999999</v>
+        <v>2076739.152</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>182668.1546</v>
       </c>
       <c r="H41">
-        <v>34335.4349</v>
+        <v>151186.6732</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2150,16 +2168,16 @@
         <v>2025</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
-        <v>20006.44</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>386492.0891</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2188,22 +2206,22 @@
         <v>2025</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E43">
-        <v>32773.06</v>
+        <v>30000</v>
       </c>
       <c r="F43">
-        <v>341581.165</v>
+        <v>120000</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>36550.6243</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2212,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2226,31 +2244,31 @@
         <v>2025</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E44">
-        <v>29792.44</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>592371.3167</v>
+        <v>433983.8522</v>
       </c>
       <c r="G44">
-        <v>25940.9131</v>
+        <v>66756.6691</v>
       </c>
       <c r="H44">
-        <v>37196.7212</v>
+        <v>37362.8604</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="L44">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2264,19 +2282,19 @@
         <v>2025</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>19881.64</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>34335.4349</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2302,16 +2320,16 @@
         <v>2025</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>20006.44</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>386492.0891</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>26973.826</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2340,22 +2358,22 @@
         <v>2025</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E47">
-        <v>25326.82</v>
+        <v>32773.06</v>
       </c>
       <c r="F47">
-        <v>276375.5386</v>
+        <v>341581.165</v>
       </c>
       <c r="G47">
-        <v>25008.9042</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>36550.6243</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2364,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2378,19 +2396,19 @@
         <v>2025</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E48">
-        <v>18541.06</v>
+        <v>29792.44</v>
       </c>
       <c r="F48">
-        <v>252067.7995</v>
+        <v>592371.3167</v>
       </c>
       <c r="G48">
-        <v>26979.2036</v>
+        <v>25940.9131</v>
       </c>
       <c r="H48">
-        <v>36919.8225</v>
+        <v>37196.7212</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2399,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>52444.52</v>
+        <v>500373.46</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2416,19 +2434,19 @@
         <v>2025</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E49">
-        <v>21854.46</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>624821.7819000001</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>12116.1151</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>40316.4462</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2437,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2454,30 +2472,220 @@
         <v>2025</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>2025</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51">
+        <v>23898.82</v>
+      </c>
+      <c r="F51">
+        <v>409625.5938</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>32674.0429</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>74021.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>2025</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>25326.82</v>
+      </c>
+      <c r="F52">
+        <v>276375.5386</v>
+      </c>
+      <c r="G52">
+        <v>25008.9042</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>23876.1125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>2025</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53">
+        <v>18541.06</v>
+      </c>
+      <c r="F53">
+        <v>252067.7995</v>
+      </c>
+      <c r="G53">
+        <v>26979.2036</v>
+      </c>
+      <c r="H53">
+        <v>36919.8225</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>5600</v>
+      </c>
+      <c r="L53">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>2025</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54">
+        <v>21854.46</v>
+      </c>
+      <c r="F54">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G54">
+        <v>12116.1151</v>
+      </c>
+      <c r="H54">
+        <v>40316.4462</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>19487.5781</v>
+      </c>
+      <c r="L54">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>2025</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55">
         <v>27683.86</v>
       </c>
-      <c r="F50">
+      <c r="F55">
         <v>418982.5319</v>
       </c>
-      <c r="G50">
+      <c r="G55">
         <v>51527.9349</v>
       </c>
-      <c r="H50">
+      <c r="H55">
         <v>40992.0789</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>181185.5419</v>
       </c>
-      <c r="L50">
+      <c r="L55">
         <v>60577.37</v>
       </c>
     </row>

--- a/summary/als/grouped_cotizacion.xlsx
+++ b/summary/als/grouped_cotizacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>WELL</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ACAI-106</t>
   </si>
   <si>
+    <t>ACAJ-154</t>
+  </si>
+  <si>
     <t>ACAK-125</t>
   </si>
   <si>
@@ -155,6 +158,12 @@
   </si>
   <si>
     <t>CNOI-041</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TBD INY</t>
   </si>
   <si>
     <t>TTSA-002</t>
@@ -587,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,7 +648,7 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>12973.06</v>
@@ -677,7 +686,7 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>25184.02</v>
@@ -715,7 +724,7 @@
         <v>2025</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>18205.06</v>
@@ -753,7 +762,7 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>17609.86</v>
@@ -791,7 +800,7 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>26603.62</v>
@@ -829,7 +838,7 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>16058</v>
@@ -867,7 +876,7 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>25746.82</v>
@@ -905,7 +914,7 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>18755.46</v>
@@ -943,7 +952,7 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>19408.1</v>
@@ -981,7 +990,7 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>19027.18</v>
@@ -1019,31 +1028,31 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E12">
-        <v>18205.06</v>
+        <v>12973.06</v>
       </c>
       <c r="F12">
-        <v>350421.9071</v>
+        <v>207427.7507</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>26424.582</v>
       </c>
       <c r="H12">
-        <v>35996.8269</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1057,31 +1066,31 @@
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E13">
-        <v>13645.06</v>
+        <v>18205.06</v>
       </c>
       <c r="F13">
-        <v>299354.9628</v>
+        <v>350421.9071</v>
       </c>
       <c r="G13">
-        <v>12892.7891</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>18459.9112</v>
+        <v>35996.8269</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1089,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>2025</v>
@@ -1133,16 +1142,16 @@
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15">
-        <v>22457.38</v>
+        <v>11806.48</v>
       </c>
       <c r="F15">
-        <v>294985.4912</v>
+        <v>442421.2041</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>12582.1195</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1157,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>42006.49</v>
+        <v>251388.46</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1171,19 +1180,19 @@
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>44610.66</v>
+        <v>22457.38</v>
       </c>
       <c r="F16">
-        <v>358194.8644</v>
+        <v>294985.4912</v>
       </c>
       <c r="G16">
-        <v>49129.3974</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>25843.8757</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1192,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1209,19 +1218,19 @@
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17">
-        <v>35264.5</v>
+        <v>44610.66</v>
       </c>
       <c r="F17">
-        <v>290894.2855</v>
+        <v>358194.8644</v>
       </c>
       <c r="G17">
-        <v>25630.2434</v>
+        <v>49129.3974</v>
       </c>
       <c r="H17">
-        <v>36735.2234</v>
+        <v>25843.8757</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1230,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L17">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1247,19 +1256,19 @@
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>13645.06</v>
+        <v>35264.5</v>
       </c>
       <c r="F18">
-        <v>299354.9628</v>
+        <v>290894.2855</v>
       </c>
       <c r="G18">
-        <v>12892.7891</v>
+        <v>25630.2434</v>
       </c>
       <c r="H18">
-        <v>18459.9112</v>
+        <v>36735.2234</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1271,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1285,19 +1294,19 @@
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>21182.46</v>
+        <v>13645.06</v>
       </c>
       <c r="F19">
-        <v>516832.16</v>
+        <v>299354.9628</v>
       </c>
       <c r="G19">
-        <v>41714.5254</v>
+        <v>12892.7891</v>
       </c>
       <c r="H19">
-        <v>36735.2234</v>
+        <v>18459.9112</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1306,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1317,22 +1326,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>18397.06</v>
+        <v>21182.46</v>
       </c>
       <c r="F20">
-        <v>326646.9343</v>
+        <v>516832.16</v>
       </c>
       <c r="G20">
-        <v>24329.9319</v>
+        <v>41714.5254</v>
       </c>
       <c r="H20">
         <v>36735.2234</v>
@@ -1344,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L20">
-        <v>36863.1</v>
+        <v>199012.794</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1361,19 +1370,19 @@
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21">
-        <v>25142.02</v>
+        <v>18397.06</v>
       </c>
       <c r="F21">
-        <v>277188.6893</v>
+        <v>326646.9343</v>
       </c>
       <c r="G21">
-        <v>24698.2346</v>
+        <v>24329.9319</v>
       </c>
       <c r="H21">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1385,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>173339.58</v>
+        <v>36863.1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1399,19 +1408,19 @@
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22">
-        <v>15006.48</v>
+        <v>25142.02</v>
       </c>
       <c r="F22">
-        <v>324866.7652</v>
+        <v>277188.6893</v>
       </c>
       <c r="G22">
-        <v>38730.0079</v>
+        <v>24698.2346</v>
       </c>
       <c r="H22">
-        <v>39190.3916</v>
+        <v>35406.1098</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1423,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>173339.58</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1437,19 +1446,19 @@
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23">
-        <v>26099.62</v>
+        <v>15006.48</v>
       </c>
       <c r="F23">
-        <v>278579.4218</v>
+        <v>324866.7652</v>
       </c>
       <c r="G23">
-        <v>26251.5827</v>
+        <v>38730.0079</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1461,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1475,16 +1484,16 @@
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E24">
-        <v>27006.82</v>
+        <v>26099.62</v>
       </c>
       <c r="F24">
-        <v>264147.2883</v>
+        <v>278579.4218</v>
       </c>
       <c r="G24">
-        <v>27649.596</v>
+        <v>26251.5827</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1499,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>64312.56099999999</v>
+        <v>29992.31</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1513,19 +1522,19 @@
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E25">
-        <v>18896.26</v>
+        <v>27006.82</v>
       </c>
       <c r="F25">
-        <v>320793.0784</v>
+        <v>264147.2883</v>
       </c>
       <c r="G25">
-        <v>27028.2567</v>
+        <v>27649.596</v>
       </c>
       <c r="H25">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1537,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1551,19 +1560,19 @@
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E26">
-        <v>17000</v>
+        <v>18896.26</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>320793.0784</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>27028.2567</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>10686.4527</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1589,19 +1598,19 @@
         <v>2025</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E27">
-        <v>26563.62</v>
+        <v>17000</v>
       </c>
       <c r="F27">
-        <v>283269.233</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>25785.5783</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1627,19 +1636,19 @@
         <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28">
-        <v>18812.78</v>
+        <v>26563.62</v>
       </c>
       <c r="F28">
-        <v>591541.1514</v>
+        <v>283269.233</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>25785.5783</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1648,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>19227.3628</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1665,16 +1674,16 @@
         <v>2025</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E29">
-        <v>21300</v>
+        <v>18812.78</v>
       </c>
       <c r="F29">
-        <v>303500</v>
+        <v>591541.1514</v>
       </c>
       <c r="G29">
-        <v>39800</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1686,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>40000</v>
+        <v>95464.1189</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>19227.3628</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1706,13 +1715,13 @@
         <v>63</v>
       </c>
       <c r="E30">
-        <v>18963.92</v>
+        <v>21300</v>
       </c>
       <c r="F30">
-        <v>267383.277</v>
+        <v>303500</v>
       </c>
       <c r="G30">
-        <v>25093.7551</v>
+        <v>39800</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1721,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1741,25 +1750,25 @@
         <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31">
-        <v>16590.18</v>
+        <v>18963.92</v>
       </c>
       <c r="F31">
-        <v>327010.7217</v>
+        <v>267383.277</v>
       </c>
       <c r="G31">
-        <v>25630.2434</v>
+        <v>25093.7551</v>
       </c>
       <c r="H31">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1779,19 +1788,19 @@
         <v>2025</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E32">
-        <v>18460.42</v>
+        <v>16590.18</v>
       </c>
       <c r="F32">
-        <v>281664.89</v>
+        <v>327010.7217</v>
       </c>
       <c r="G32">
-        <v>25785.58</v>
+        <v>25630.2434</v>
       </c>
       <c r="H32">
-        <v>36978.89</v>
+        <v>36402.945</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1817,19 +1826,19 @@
         <v>2025</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33">
-        <v>18541.06</v>
+        <v>18460.42</v>
       </c>
       <c r="F33">
-        <v>319530.8217</v>
+        <v>281664.89</v>
       </c>
       <c r="G33">
-        <v>36708.3923</v>
+        <v>25785.58</v>
       </c>
       <c r="H33">
-        <v>37289.0207</v>
+        <v>36978.89</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1838,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1855,19 +1864,19 @@
         <v>2025</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34">
-        <v>14932.88</v>
+        <v>18541.06</v>
       </c>
       <c r="F34">
-        <v>262147.1729</v>
+        <v>319530.8217</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>36708.3923</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>37289.0207</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1876,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>5376</v>
+        <v>5373.2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1893,19 +1902,19 @@
         <v>2025</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E35">
-        <v>16058</v>
+        <v>14932.88</v>
       </c>
       <c r="F35">
-        <v>317342.6932</v>
+        <v>262147.1729</v>
       </c>
       <c r="G35">
-        <v>26406.9175</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1914,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L35">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1931,19 +1940,19 @@
         <v>2025</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>15265.68</v>
+        <v>16058</v>
       </c>
       <c r="F36">
-        <v>311352.2643</v>
+        <v>317342.6932</v>
       </c>
       <c r="G36">
         <v>26406.9175</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1955,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1969,16 +1978,16 @@
         <v>2025</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E37">
-        <v>20558.98</v>
+        <v>15265.68</v>
       </c>
       <c r="F37">
-        <v>300178.145</v>
+        <v>311352.2643</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1987,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2007,13 +2016,13 @@
         <v>2025</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38">
-        <v>80000</v>
+        <v>20558.98</v>
       </c>
       <c r="F38">
-        <v>120000</v>
+        <v>300178.145</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2022,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2045,22 +2054,22 @@
         <v>2025</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E39">
-        <v>14668.56</v>
+        <v>80000</v>
       </c>
       <c r="F39">
-        <v>301721.9088</v>
+        <v>120000</v>
       </c>
       <c r="G39">
-        <v>24232.2302</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2069,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2083,22 +2092,22 @@
         <v>2025</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E40">
-        <v>30000</v>
+        <v>14668.56</v>
       </c>
       <c r="F40">
-        <v>120000</v>
+        <v>301721.9088</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>24232.2302</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2107,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2121,28 +2130,28 @@
         <v>2025</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>103206.2</v>
       </c>
       <c r="F41">
-        <v>433983.8522</v>
+        <v>2076739.152</v>
       </c>
       <c r="G41">
-        <v>66756.6691</v>
+        <v>182668.1546</v>
       </c>
       <c r="H41">
-        <v>37362.8604</v>
+        <v>151186.6732</v>
       </c>
       <c r="I41">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2159,19 +2168,19 @@
         <v>2025</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E42">
-        <v>19881.64</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>544086.7781999999</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>34335.4349</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2197,22 +2206,22 @@
         <v>2025</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E43">
-        <v>20006.44</v>
+        <v>30000</v>
       </c>
       <c r="F43">
-        <v>386492.0891</v>
+        <v>120000</v>
       </c>
       <c r="G43">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2221,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2235,28 +2244,28 @@
         <v>2025</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E44">
-        <v>32773.06</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>341581.165</v>
+        <v>433983.8522</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>66756.6691</v>
       </c>
       <c r="H44">
-        <v>36550.6243</v>
+        <v>37362.8604</v>
       </c>
       <c r="I44">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2276,16 +2285,16 @@
         <v>66</v>
       </c>
       <c r="E45">
-        <v>29792.44</v>
+        <v>19881.64</v>
       </c>
       <c r="F45">
-        <v>592371.3167</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="G45">
-        <v>25940.9131</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>37196.7212</v>
+        <v>34335.4349</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2297,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2311,16 +2320,16 @@
         <v>2025</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>20006.44</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>386492.0891</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>26973.826</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2349,22 +2358,22 @@
         <v>2025</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>32773.06</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>341581.165</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>36550.6243</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2387,19 +2396,19 @@
         <v>2025</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E48">
-        <v>23898.82</v>
+        <v>29792.44</v>
       </c>
       <c r="F48">
-        <v>409625.5938</v>
+        <v>592371.3167</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>25940.9131</v>
       </c>
       <c r="H48">
-        <v>32674.0429</v>
+        <v>37196.7212</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2411,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>42006.49</v>
+        <v>500373.46</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2425,16 +2434,16 @@
         <v>2025</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E49">
-        <v>25326.82</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>276375.5386</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>25008.9042</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2449,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2463,19 +2472,19 @@
         <v>2025</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E50">
-        <v>18541.06</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>252067.7995</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>26979.2036</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2484,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2501,19 +2510,19 @@
         <v>2025</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E51">
-        <v>21854.46</v>
+        <v>23898.82</v>
       </c>
       <c r="F51">
-        <v>624821.7819000001</v>
+        <v>409625.5938</v>
       </c>
       <c r="G51">
-        <v>12116.1151</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>40316.4462</v>
+        <v>32674.0429</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2522,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>229812.833425</v>
+        <v>74021.34</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2539,30 +2548,144 @@
         <v>2025</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E52">
+        <v>25326.82</v>
+      </c>
+      <c r="F52">
+        <v>276375.5386</v>
+      </c>
+      <c r="G52">
+        <v>25008.9042</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>23876.1125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>2025</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53">
+        <v>18541.06</v>
+      </c>
+      <c r="F53">
+        <v>252067.7995</v>
+      </c>
+      <c r="G53">
+        <v>26979.2036</v>
+      </c>
+      <c r="H53">
+        <v>36919.8225</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>5600</v>
+      </c>
+      <c r="L53">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>2025</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54">
+        <v>21854.46</v>
+      </c>
+      <c r="F54">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G54">
+        <v>12116.1151</v>
+      </c>
+      <c r="H54">
+        <v>40316.4462</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>19487.5781</v>
+      </c>
+      <c r="L54">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>2025</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55">
         <v>27683.86</v>
       </c>
-      <c r="F52">
+      <c r="F55">
         <v>418982.5319</v>
       </c>
-      <c r="G52">
+      <c r="G55">
         <v>51527.9349</v>
       </c>
-      <c r="H52">
+      <c r="H55">
         <v>40992.0789</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>181185.5419</v>
       </c>
-      <c r="L52">
+      <c r="L55">
         <v>60577.37</v>
       </c>
     </row>
